--- a/biology/Médecine/Muscle_court_extenseur_du_pouce/Muscle_court_extenseur_du_pouce.xlsx
+++ b/biology/Médecine/Muscle_court_extenseur_du_pouce/Muscle_court_extenseur_du_pouce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court extenseur du pouce est un muscle grêle de l'avant-bras. Il se situe dans la partie profonde de la loge postérieure de l'avant bras.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court extenseur du pouce se fixe sur le tiers moyen de la face postérieure du radius,  de la membrane interosseuse antébrachiale, et parfois de l'ulna.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court extenseur du pouce se dirige en bas et en dehors, et son tendon terminal participe latéralement à la tabatière anatomique.
 </t>
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court extenseur du pouce se termine en bas sur la face dorsale de la base de la phalange proximale du pouce.
 </t>
@@ -604,7 +622,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court extenseur du pouce est innervé par le nerf du muscle court extenseur du pouce issu du rameau profond du nerf radial.
 </t>
@@ -635,7 +655,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court extenseur du pouce est extenseur et abducteur du pouce, puis du premier métacarpien.
 </t>
